--- a/project/average_age.xlsx
+++ b/project/average_age.xlsx
@@ -473,7 +473,7 @@
         <v>43.67856183283562</v>
       </c>
       <c r="E2" t="n">
-        <v>10575.62257575758</v>
+        <v>10576</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>43.4444754334789</v>
       </c>
       <c r="E3" t="n">
-        <v>9363.943686868686</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>45.08638787418999</v>
       </c>
       <c r="E4" t="n">
-        <v>10360.80765432099</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>43.96483131836325</v>
       </c>
       <c r="E5" t="n">
-        <v>9941.717530864198</v>
+        <v>9942</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>46.99486260024783</v>
       </c>
       <c r="E6" t="n">
-        <v>10658.30683760684</v>
+        <v>10659</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>45.18651631822783</v>
       </c>
       <c r="E7" t="n">
-        <v>9993.378717948719</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +599,7 @@
         <v>44.59137768752438</v>
       </c>
       <c r="E8" t="n">
-        <v>12120.82544444444</v>
+        <v>12121</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         <v>43.35622516899235</v>
       </c>
       <c r="E9" t="n">
-        <v>11305.39322222222</v>
+        <v>11306</v>
       </c>
     </row>
     <row r="10">
@@ -641,7 +641,7 @@
         <v>43.35759369430063</v>
       </c>
       <c r="E10" t="n">
-        <v>10608.66761904762</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>41.66698136719904</v>
       </c>
       <c r="E11" t="n">
-        <v>10723.78084656085</v>
+        <v>10724</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +683,7 @@
         <v>43.02500362171995</v>
       </c>
       <c r="E12" t="n">
-        <v>10553.09933333333</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +704,7 @@
         <v>42.22845649090718</v>
       </c>
       <c r="E13" t="n">
-        <v>10001.39088888889</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +725,7 @@
         <v>45.08348660420248</v>
       </c>
       <c r="E14" t="n">
-        <v>12386.72881481481</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="15">
@@ -746,7 +746,7 @@
         <v>44.08112792198168</v>
       </c>
       <c r="E15" t="n">
-        <v>12328.53066666667</v>
+        <v>12329</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>45.6997187213383</v>
       </c>
       <c r="E16" t="n">
-        <v>10450.33255555556</v>
+        <v>10451</v>
       </c>
     </row>
     <row r="17">
@@ -788,7 +788,7 @@
         <v>43.96442399768208</v>
       </c>
       <c r="E17" t="n">
-        <v>10908.64244444444</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         <v>45.37702409546038</v>
       </c>
       <c r="E18" t="n">
-        <v>12275.00152046784</v>
+        <v>12276</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>43.58281848407607</v>
       </c>
       <c r="E19" t="n">
-        <v>11294.4734502924</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="20">
@@ -851,7 +851,7 @@
         <v>46.21695381672927</v>
       </c>
       <c r="E20" t="n">
-        <v>10344.36452380952</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         <v>44.95287171542103</v>
       </c>
       <c r="E21" t="n">
-        <v>9663.719523809523</v>
+        <v>9664</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>44.79315319006297</v>
       </c>
       <c r="E22" t="n">
-        <v>11026.29126984127</v>
+        <v>11027</v>
       </c>
     </row>
     <row r="23">
@@ -914,7 +914,7 @@
         <v>43.24768596559448</v>
       </c>
       <c r="E23" t="n">
-        <v>10806.92626984127</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="24">
@@ -935,7 +935,7 @@
         <v>44.21040397800892</v>
       </c>
       <c r="E24" t="n">
-        <v>11691.17911111111</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="25">
@@ -956,7 +956,7 @@
         <v>42.67016734797349</v>
       </c>
       <c r="E25" t="n">
-        <v>11128.4862962963</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="26">
@@ -977,7 +977,7 @@
         <v>43.52730504645555</v>
       </c>
       <c r="E26" t="n">
-        <v>10428.18145833333</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="27">
@@ -998,7 +998,7 @@
         <v>42.65171565609326</v>
       </c>
       <c r="E27" t="n">
-        <v>9360.433472222223</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1019,7 @@
         <v>44.61013169164764</v>
       </c>
       <c r="E28" t="n">
-        <v>9788.106746031746</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="29">
@@ -1040,7 +1040,7 @@
         <v>43.55969236702925</v>
       </c>
       <c r="E29" t="n">
-        <v>8842.117857142857</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="30">
@@ -1061,7 +1061,7 @@
         <v>43.95403942316266</v>
       </c>
       <c r="E30" t="n">
-        <v>9826.704074074074</v>
+        <v>9827</v>
       </c>
     </row>
     <row r="31">
@@ -1082,7 +1082,7 @@
         <v>43.79589222117423</v>
       </c>
       <c r="E31" t="n">
-        <v>8771.788703703704</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>44.5836613104007</v>
       </c>
       <c r="E32" t="n">
-        <v>7369.065620915033</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         <v>43.08364171455307</v>
       </c>
       <c r="E33" t="n">
-        <v>7201.125032679739</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>44.69429429547001</v>
       </c>
       <c r="E34" t="n">
-        <v>9705.915999999999</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="35">
@@ -1166,7 +1166,7 @@
         <v>43.54542337875918</v>
       </c>
       <c r="E35" t="n">
-        <v>9002.26038888889</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="36">
@@ -1187,7 +1187,7 @@
         <v>44.13284343530035</v>
       </c>
       <c r="E36" t="n">
-        <v>10212.99283950617</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="37">
@@ -1208,7 +1208,7 @@
         <v>43.61362524757583</v>
       </c>
       <c r="E37" t="n">
-        <v>9564.762962962963</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="38">
@@ -1229,7 +1229,7 @@
         <v>44.91564931039728</v>
       </c>
       <c r="E38" t="n">
-        <v>10509.86672839506</v>
+        <v>10510</v>
       </c>
     </row>
     <row r="39">
@@ -1250,7 +1250,7 @@
         <v>43.9176586419736</v>
       </c>
       <c r="E39" t="n">
-        <v>9955.361975308642</v>
+        <v>9956</v>
       </c>
     </row>
     <row r="40">
@@ -1271,7 +1271,7 @@
         <v>44.95226593045345</v>
       </c>
       <c r="E40" t="n">
-        <v>9678.802716049382</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         <v>43.95586648718914</v>
       </c>
       <c r="E41" t="n">
-        <v>9600.798765432099</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="42">
@@ -1313,7 +1313,7 @@
         <v>45.38090838034263</v>
       </c>
       <c r="E42" t="n">
-        <v>6212.410902777778</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="43">
@@ -1334,7 +1334,7 @@
         <v>44.03814601649319</v>
       </c>
       <c r="E43" t="n">
-        <v>5743.052708333333</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="44">
@@ -1355,7 +1355,7 @@
         <v>45.95133989027758</v>
       </c>
       <c r="E44" t="n">
-        <v>12713.58506944444</v>
+        <v>12714</v>
       </c>
     </row>
     <row r="45">
@@ -1376,7 +1376,7 @@
         <v>44.6136615582645</v>
       </c>
       <c r="E45" t="n">
-        <v>11773.68131944444</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="46">
@@ -1397,7 +1397,7 @@
         <v>45.08197930879352</v>
       </c>
       <c r="E46" t="n">
-        <v>4116.434052287582</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="47">
@@ -1418,7 +1418,7 @@
         <v>43.57134289798244</v>
       </c>
       <c r="E47" t="n">
-        <v>3910.359869281046</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="48">
@@ -1439,7 +1439,7 @@
         <v>45.5421139172566</v>
       </c>
       <c r="E48" t="n">
-        <v>3863.046888888889</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="49">
@@ -1460,7 +1460,7 @@
         <v>43.7658398570182</v>
       </c>
       <c r="E49" t="n">
-        <v>3737.331481481481</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="50">
@@ -1481,7 +1481,7 @@
         <v>45.55256123084995</v>
       </c>
       <c r="E50" t="n">
-        <v>10710.99055555556</v>
+        <v>10711</v>
       </c>
     </row>
     <row r="51">
@@ -1502,7 +1502,7 @@
         <v>44.21261457860484</v>
       </c>
       <c r="E51" t="n">
-        <v>10375.62513888889</v>
+        <v>10376</v>
       </c>
     </row>
   </sheetData>

--- a/project/average_age.xlsx
+++ b/project/average_age.xlsx
@@ -473,7 +473,7 @@
         <v>43.67856183283562</v>
       </c>
       <c r="E2" t="n">
-        <v>10576</v>
+        <v>232664</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>43.4444754334789</v>
       </c>
       <c r="E3" t="n">
-        <v>9364</v>
+        <v>206007</v>
       </c>
     </row>
     <row r="4">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45.08638787418999</v>
+        <v>45.08638787418998</v>
       </c>
       <c r="E4" t="n">
-        <v>10361</v>
+        <v>186495</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>43.96483131836325</v>
       </c>
       <c r="E5" t="n">
-        <v>9942</v>
+        <v>178951</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46.99486260024783</v>
+        <v>46.99486260024784</v>
       </c>
       <c r="E6" t="n">
-        <v>10659</v>
+        <v>138558</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>45.18651631822783</v>
       </c>
       <c r="E7" t="n">
-        <v>9994</v>
+        <v>129914</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +599,7 @@
         <v>44.59137768752438</v>
       </c>
       <c r="E8" t="n">
-        <v>12121</v>
+        <v>242417</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         <v>43.35622516899235</v>
       </c>
       <c r="E9" t="n">
-        <v>11306</v>
+        <v>226108</v>
       </c>
     </row>
     <row r="10">
@@ -641,7 +641,7 @@
         <v>43.35759369430063</v>
       </c>
       <c r="E10" t="n">
-        <v>10609</v>
+        <v>222783</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>41.66698136719904</v>
       </c>
       <c r="E11" t="n">
-        <v>10724</v>
+        <v>225200</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +683,7 @@
         <v>43.02500362171995</v>
       </c>
       <c r="E12" t="n">
-        <v>10554</v>
+        <v>158297</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +704,7 @@
         <v>42.22845649090718</v>
       </c>
       <c r="E13" t="n">
-        <v>10002</v>
+        <v>150021</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +725,7 @@
         <v>45.08348660420248</v>
       </c>
       <c r="E14" t="n">
-        <v>12387</v>
+        <v>185801</v>
       </c>
     </row>
     <row r="15">
@@ -746,7 +746,7 @@
         <v>44.08112792198168</v>
       </c>
       <c r="E15" t="n">
-        <v>12329</v>
+        <v>184928</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>45.6997187213383</v>
       </c>
       <c r="E16" t="n">
-        <v>10451</v>
+        <v>104504</v>
       </c>
     </row>
     <row r="17">
@@ -788,7 +788,7 @@
         <v>43.96442399768208</v>
       </c>
       <c r="E17" t="n">
-        <v>10909</v>
+        <v>109087</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         <v>45.37702409546038</v>
       </c>
       <c r="E18" t="n">
-        <v>12276</v>
+        <v>233226</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>43.58281848407607</v>
       </c>
       <c r="E19" t="n">
-        <v>11295</v>
+        <v>214595</v>
       </c>
     </row>
     <row r="20">
@@ -851,7 +851,7 @@
         <v>46.21695381672927</v>
       </c>
       <c r="E20" t="n">
-        <v>10345</v>
+        <v>144822</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         <v>44.95287171542103</v>
       </c>
       <c r="E21" t="n">
-        <v>9664</v>
+        <v>135293</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>44.79315319006297</v>
       </c>
       <c r="E22" t="n">
-        <v>11027</v>
+        <v>154369</v>
       </c>
     </row>
     <row r="23">
@@ -914,7 +914,7 @@
         <v>43.24768596559448</v>
       </c>
       <c r="E23" t="n">
-        <v>10807</v>
+        <v>151297</v>
       </c>
     </row>
     <row r="24">
@@ -935,7 +935,7 @@
         <v>44.21040397800892</v>
       </c>
       <c r="E24" t="n">
-        <v>11692</v>
+        <v>175368</v>
       </c>
     </row>
     <row r="25">
@@ -956,7 +956,7 @@
         <v>42.67016734797349</v>
       </c>
       <c r="E25" t="n">
-        <v>11129</v>
+        <v>166928</v>
       </c>
     </row>
     <row r="26">
@@ -977,7 +977,7 @@
         <v>43.52730504645555</v>
       </c>
       <c r="E26" t="n">
-        <v>10429</v>
+        <v>166851</v>
       </c>
     </row>
     <row r="27">
@@ -998,7 +998,7 @@
         <v>42.65171565609326</v>
       </c>
       <c r="E27" t="n">
-        <v>9361</v>
+        <v>149767</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1019,7 @@
         <v>44.61013169164764</v>
       </c>
       <c r="E28" t="n">
-        <v>9789</v>
+        <v>137034</v>
       </c>
     </row>
     <row r="29">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43.55969236702925</v>
+        <v>43.55969236702924</v>
       </c>
       <c r="E29" t="n">
-        <v>8843</v>
+        <v>123790</v>
       </c>
     </row>
     <row r="30">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43.95403942316266</v>
+        <v>43.95403942316265</v>
       </c>
       <c r="E30" t="n">
-        <v>9827</v>
+        <v>176881</v>
       </c>
     </row>
     <row r="31">
@@ -1082,7 +1082,7 @@
         <v>43.79589222117423</v>
       </c>
       <c r="E31" t="n">
-        <v>8772</v>
+        <v>157893</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>44.5836613104007</v>
       </c>
       <c r="E32" t="n">
-        <v>7370</v>
+        <v>125275</v>
       </c>
     </row>
     <row r="33">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43.08364171455307</v>
+        <v>43.08364171455308</v>
       </c>
       <c r="E33" t="n">
-        <v>7202</v>
+        <v>122420</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>44.69429429547001</v>
       </c>
       <c r="E34" t="n">
-        <v>9706</v>
+        <v>194119</v>
       </c>
     </row>
     <row r="35">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>43.54542337875918</v>
+        <v>43.54542337875919</v>
       </c>
       <c r="E35" t="n">
-        <v>9003</v>
+        <v>180046</v>
       </c>
     </row>
     <row r="36">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>44.13284343530035</v>
+        <v>44.13284343530037</v>
       </c>
       <c r="E36" t="n">
-        <v>10213</v>
+        <v>275751</v>
       </c>
     </row>
     <row r="37">
@@ -1208,7 +1208,7 @@
         <v>43.61362524757583</v>
       </c>
       <c r="E37" t="n">
-        <v>9565</v>
+        <v>258249</v>
       </c>
     </row>
     <row r="38">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>44.91564931039728</v>
+        <v>44.91564931039727</v>
       </c>
       <c r="E38" t="n">
-        <v>10510</v>
+        <v>189178</v>
       </c>
     </row>
     <row r="39">
@@ -1250,7 +1250,7 @@
         <v>43.9176586419736</v>
       </c>
       <c r="E39" t="n">
-        <v>9956</v>
+        <v>179197</v>
       </c>
     </row>
     <row r="40">
@@ -1271,7 +1271,7 @@
         <v>44.95226593045345</v>
       </c>
       <c r="E40" t="n">
-        <v>9679</v>
+        <v>174219</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         <v>43.95586648718914</v>
       </c>
       <c r="E41" t="n">
-        <v>9601</v>
+        <v>172815</v>
       </c>
     </row>
     <row r="42">
@@ -1313,7 +1313,7 @@
         <v>45.38090838034263</v>
       </c>
       <c r="E42" t="n">
-        <v>6213</v>
+        <v>99399</v>
       </c>
     </row>
     <row r="43">
@@ -1334,7 +1334,7 @@
         <v>44.03814601649319</v>
       </c>
       <c r="E43" t="n">
-        <v>5744</v>
+        <v>91889</v>
       </c>
     </row>
     <row r="44">
@@ -1355,7 +1355,7 @@
         <v>45.95133989027758</v>
       </c>
       <c r="E44" t="n">
-        <v>12714</v>
+        <v>203418</v>
       </c>
     </row>
     <row r="45">
@@ -1376,7 +1376,7 @@
         <v>44.6136615582645</v>
       </c>
       <c r="E45" t="n">
-        <v>11774</v>
+        <v>188379</v>
       </c>
     </row>
     <row r="46">
@@ -1397,7 +1397,7 @@
         <v>45.08197930879352</v>
       </c>
       <c r="E46" t="n">
-        <v>4117</v>
+        <v>69980</v>
       </c>
     </row>
     <row r="47">
@@ -1418,7 +1418,7 @@
         <v>43.57134289798244</v>
       </c>
       <c r="E47" t="n">
-        <v>3911</v>
+        <v>66477</v>
       </c>
     </row>
     <row r="48">
@@ -1439,7 +1439,7 @@
         <v>45.5421139172566</v>
       </c>
       <c r="E48" t="n">
-        <v>3864</v>
+        <v>57946</v>
       </c>
     </row>
     <row r="49">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>43.7658398570182</v>
+        <v>43.76583985701821</v>
       </c>
       <c r="E49" t="n">
-        <v>3738</v>
+        <v>56060</v>
       </c>
     </row>
     <row r="50">
@@ -1481,7 +1481,7 @@
         <v>45.55256123084995</v>
       </c>
       <c r="E50" t="n">
-        <v>10711</v>
+        <v>171376</v>
       </c>
     </row>
     <row r="51">
@@ -1502,7 +1502,7 @@
         <v>44.21261457860484</v>
       </c>
       <c r="E51" t="n">
-        <v>10376</v>
+        <v>166011</v>
       </c>
     </row>
   </sheetData>
